--- a/data/trans_dic/P22$concerEmp-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P22$concerEmp-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.004067091293982331</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.009012842731777446</v>
+        <v>0.009012842731777444</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.001403232386925511</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01033200116802485</v>
+        <v>0.01126129454085426</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.005468700957407179</v>
+        <v>0.005795964353365022</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.00305658169613313</v>
+        <v>0.002918569141254229</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.001438496918647193</v>
+        <v>0.001431230422453554</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.001829258392559764</v>
+        <v>0.00182647234314958</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.006185204107343986</v>
+        <v>0.006259930643778349</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.004878010060161701</v>
+        <v>0.004941064437865353</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.00129544882607103</v>
+        <v>0.0007108447645687467</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.003523219524590428</v>
+        <v>0.003204424811301871</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03359980032283233</v>
+        <v>0.03333196948597517</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02328453987945817</v>
+        <v>0.02572574205646081</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01701296130618688</v>
+        <v>0.01625247003663498</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02177761279559445</v>
+        <v>0.02137068650212057</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.007019142591254511</v>
+        <v>0.007554648257317405</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01500285969759909</v>
+        <v>0.01301896458348027</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.009172995117356883</v>
+        <v>0.009208588908689816</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01060106702541874</v>
+        <v>0.01047996845996328</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01790965733566984</v>
+        <v>0.01764427746015481</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01591319794534129</v>
+        <v>0.0157191416257214</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.009849862400183833</v>
+        <v>0.009085743622436032</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01382125725596059</v>
+        <v>0.01334718554894866</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.005784374523554643</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.007928689408600264</v>
+        <v>0.007928689408600266</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01738390923140223</v>
+        <v>0.01630637742983669</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007120981293248958</v>
+        <v>0.006844761117700496</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.00232433726397374</v>
+        <v>0.002393343728720837</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.006953058210587815</v>
+        <v>0.006989852308719804</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.001189005123542579</v>
+        <v>0.001180314319945962</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.001941665744695385</v>
+        <v>0.001843723645960375</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0007113032067272031</v>
+        <v>0.0007203745262135929</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.009999215379718849</v>
+        <v>0.0104019904811125</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.003932429852679546</v>
+        <v>0.004004368096362162</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.00280610608640214</v>
+        <v>0.002682382870636514</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.004387333566424927</v>
+        <v>0.004462343088468242</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03965296353198584</v>
+        <v>0.0385047658239429</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0241840167251526</v>
+        <v>0.02299384498835617</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01434765523910746</v>
+        <v>0.01482457208524255</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02469419263838727</v>
+        <v>0.02487389727795251</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0105211940166444</v>
+        <v>0.01035533445443242</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.004731541735551685</v>
+        <v>0.005341872750096048</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01107666494877109</v>
+        <v>0.01148619194608524</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.006916176924940128</v>
+        <v>0.006710787271933058</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02189014996961918</v>
+        <v>0.02170699235669791</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01324180192074222</v>
+        <v>0.0125155845449304</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01085443009851991</v>
+        <v>0.01037282027343216</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01308051309933735</v>
+        <v>0.01387388326980433</v>
       </c>
     </row>
     <row r="10">
@@ -980,38 +980,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01635790895439133</v>
+        <v>0.01536101934063855</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.00880210785005937</v>
+        <v>0.008312722799373989</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.004629672661435977</v>
+        <v>0.005380816138957868</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.003836959432352776</v>
+        <v>0.00400319100230889</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.0008148107051462356</v>
+        <v>0.0008208715705698415</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01219411505967659</v>
+        <v>0.0116151194007829</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.005249439193095793</v>
+        <v>0.005143523614015724</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.003611848095931294</v>
+        <v>0.003464713561635073</v>
       </c>
     </row>
     <row r="12">
@@ -1022,38 +1022,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0409232384111082</v>
+        <v>0.03878522352566451</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02886293623558759</v>
+        <v>0.02802171577573732</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01273074419280615</v>
+        <v>0.01117558348044605</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02149880396467541</v>
+        <v>0.02121455422301114</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01812827230778636</v>
+        <v>0.01859315696998924</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.009852695214337114</v>
+        <v>0.008906396887534579</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.006701183643584317</v>
+        <v>0.007856079679394178</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02687457060781307</v>
+        <v>0.02495892940853111</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01572619627054759</v>
+        <v>0.01581728884945903</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.006304782314602238</v>
+        <v>0.006313990705230341</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01165704044569253</v>
+        <v>0.01239137187394586</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.007379969050300979</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.02370258526624681</v>
+        <v>0.0237025852662468</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.0062660948534757</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01029478385556817</v>
+        <v>0.01027792141120536</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.00200011887571441</v>
+        <v>0.002040020461189731</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.002912924601928533</v>
+        <v>0.002693154064291007</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01524246564652582</v>
+        <v>0.01451510856911037</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.002281190970953947</v>
+        <v>0.002277997889200997</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.001970997325571999</v>
+        <v>0.001950774816685465</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.001918134247697223</v>
+        <v>0.002667433849473856</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.008727257017019855</v>
+        <v>0.009170227504757777</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.007721972803083086</v>
+        <v>0.007412273903471223</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.002532847714135667</v>
+        <v>0.002912383555593005</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.003428204819682617</v>
+        <v>0.003313730779627637</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01364935367992932</v>
+        <v>0.01336140737314123</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02602517580355909</v>
+        <v>0.02818463357673529</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01150695942718855</v>
+        <v>0.01255080527537978</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01624024562317639</v>
+        <v>0.01664681079142376</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03773073949140256</v>
+        <v>0.03668873701956214</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01383895023472817</v>
+        <v>0.01448203558854271</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01140797561721236</v>
+        <v>0.01212838158936191</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0114156950253325</v>
+        <v>0.01211094148491552</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02208310646010439</v>
+        <v>0.02278461709316589</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01758681689418027</v>
+        <v>0.01645221844104668</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.009160238849266011</v>
+        <v>0.009384354883974622</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01119969722201984</v>
+        <v>0.0112090424004602</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02632821431596632</v>
+        <v>0.02561395485066587</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>0.004609368116093737</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.0106551126435471</v>
+        <v>0.01065511264354709</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01747109649759849</v>
+        <v>0.01758836350316591</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.008311914374918064</v>
+        <v>0.007977928802253721</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.003220886151698827</v>
+        <v>0.003220187061053143</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01082612728360482</v>
+        <v>0.01086901119641544</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.003285782435566245</v>
+        <v>0.003426860698334333</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.001927806807992076</v>
+        <v>0.001950002685711841</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.001854971644345505</v>
+        <v>0.001948241373479634</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.004669995825543813</v>
+        <v>0.004692614821932769</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01115108580643703</v>
+        <v>0.01129066042549608</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.005648231148541239</v>
+        <v>0.005670883796436242</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.003087086488226063</v>
+        <v>0.003188691350761366</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.008327012584841753</v>
+        <v>0.008079650986775846</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02827783261126601</v>
+        <v>0.02794237233392633</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01617548512124959</v>
+        <v>0.01583695097245395</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.00933038880415319</v>
+        <v>0.009375651668603633</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02016722027223251</v>
+        <v>0.02021345184349523</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.008649676530624028</v>
+        <v>0.008369756652897868</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.005905364528320568</v>
+        <v>0.006077675359582728</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.006012708260401874</v>
+        <v>0.005943768694964399</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.009157651861230146</v>
+        <v>0.009438558716016378</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01712282663454348</v>
+        <v>0.0168968003198793</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01002845098127885</v>
+        <v>0.01017883450505854</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.006631147953833093</v>
+        <v>0.006703680056338122</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.01342514743258105</v>
+        <v>0.01347898649604896</v>
       </c>
     </row>
     <row r="19">
@@ -1596,40 +1596,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7148</v>
+        <v>7791</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3847</v>
+        <v>4077</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2111</v>
+        <v>2016</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>8532</v>
+        <v>8635</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>6832</v>
+        <v>6920</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1744</v>
+        <v>957</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>5016</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="7">
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23246</v>
+        <v>23061</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16380</v>
+        <v>18097</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11460</v>
+        <v>10948</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>15042</v>
+        <v>14761</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4826</v>
+        <v>5194</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>10458</v>
+        <v>9075</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>6172</v>
+        <v>6196</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>7772</v>
+        <v>7683</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>24704</v>
+        <v>24338</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>22287</v>
+        <v>22015</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>13263</v>
+        <v>12234</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>19679</v>
+        <v>19004</v>
       </c>
     </row>
     <row r="8">
@@ -1776,40 +1776,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16702</v>
+        <v>15667</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7242</v>
+        <v>6961</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2374</v>
+        <v>2445</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7293</v>
+        <v>7332</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2021</v>
+        <v>1919</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>19290</v>
+        <v>20067</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>8058</v>
+        <v>8206</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>5788</v>
+        <v>5532</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>9300</v>
+        <v>9459</v>
       </c>
     </row>
     <row r="11">
@@ -1820,40 +1820,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>38098</v>
+        <v>36995</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>24594</v>
+        <v>23384</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14656</v>
+        <v>15143</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>25902</v>
+        <v>26091</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>10189</v>
+        <v>10028</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>4884</v>
+        <v>5514</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>11531</v>
+        <v>11957</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>7406</v>
+        <v>7186</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>42230</v>
+        <v>41877</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>27134</v>
+        <v>25646</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>22387</v>
+        <v>21394</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>27727</v>
+        <v>29409</v>
       </c>
     </row>
     <row r="12">
@@ -1956,38 +1956,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11084</v>
+        <v>10408</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6669</v>
+        <v>6298</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3718</v>
+        <v>4321</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2624</v>
+        <v>2738</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>16601</v>
+        <v>15813</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>8057</v>
+        <v>7894</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>5834</v>
+        <v>5597</v>
       </c>
     </row>
     <row r="15">
@@ -1998,38 +1998,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>27729</v>
+        <v>26280</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21867</v>
+        <v>21230</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9646</v>
+        <v>8468</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>17265</v>
+        <v>17037</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12397</v>
+        <v>12715</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>7657</v>
+        <v>6922</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>5443</v>
+        <v>6381</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>36588</v>
+        <v>33980</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>24137</v>
+        <v>24276</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>9702</v>
+        <v>9716</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>18830</v>
+        <v>20016</v>
       </c>
     </row>
     <row r="16">
@@ -2132,40 +2132,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>9676</v>
+        <v>9660</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1896</v>
+        <v>1933</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2728</v>
+        <v>2522</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>15091</v>
+        <v>14371</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2367</v>
+        <v>2363</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2073</v>
+        <v>2052</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2002</v>
+        <v>2784</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>9751</v>
+        <v>10245</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>15269</v>
+        <v>14657</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>5065</v>
+        <v>5824</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>6789</v>
+        <v>6562</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>28763</v>
+        <v>28157</v>
       </c>
     </row>
     <row r="19">
@@ -2176,40 +2176,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>24461</v>
+        <v>26491</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>10906</v>
+        <v>11895</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>15211</v>
+        <v>15591</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>37356</v>
+        <v>36324</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>14357</v>
+        <v>15024</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>12000</v>
+        <v>12758</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>11915</v>
+        <v>12641</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>24672</v>
+        <v>25456</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>34775</v>
+        <v>32531</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>18317</v>
+        <v>18765</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>22180</v>
+        <v>22198</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>55482</v>
+        <v>53977</v>
       </c>
     </row>
     <row r="20">
@@ -2312,40 +2312,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>57133</v>
+        <v>57516</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>28475</v>
+        <v>27331</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10917</v>
+        <v>10915</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>38246</v>
+        <v>38398</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>11097</v>
+        <v>11573</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>6860</v>
+        <v>6939</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>6564</v>
+        <v>6894</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>17435</v>
+        <v>17520</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>74125</v>
+        <v>75052</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>39448</v>
+        <v>39606</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>21388</v>
+        <v>22092</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>60506</v>
+        <v>58709</v>
       </c>
     </row>
     <row r="23">
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>92472</v>
+        <v>91375</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>55414</v>
+        <v>54254</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>31625</v>
+        <v>31778</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>71246</v>
+        <v>71409</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>29211</v>
+        <v>28266</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>21013</v>
+        <v>21626</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>21277</v>
+        <v>21033</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>34190</v>
+        <v>35239</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>113821</v>
+        <v>112318</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>70040</v>
+        <v>71090</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>45942</v>
+        <v>46444</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>97550</v>
+        <v>97941</v>
       </c>
     </row>
     <row r="24">
